--- a/2023/Master/MSc Stats Data 2021-23 Batch BARC.xlsx
+++ b/2023/Master/MSc Stats Data 2021-23 Batch BARC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\cv\2023\BARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\cv\2023\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD512A50-F932-4F30-AEB8-B6B1CFFE2C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACE22B5-8790-4141-A77A-8C0DD0052EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6D54597-654D-47FE-930E-933B921A294B}"/>
+    <workbookView xWindow="996" yWindow="612" windowWidth="22044" windowHeight="11628" xr2:uid="{B6D54597-654D-47FE-930E-933B921A294B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1149,7 @@
         <v>62.833333333333336</v>
       </c>
       <c r="O10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/BARC/",A10,".pdf"))</f>
         <v>https://kbcnmustats.github.io/cv/2023/BARC/Patil Hemant Prakash.pdf</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(_xlfn.CONCAT("https://kbcnmustats.github.io/cv/2023/BARC/",A11,".pdf"))</f>
         <v>https://kbcnmustats.github.io/cv/2023/BARC/Patil Nikita Sharad.pdf</v>
       </c>
     </row>
